--- a/results/yq_test/DJ_cz/Rb2Re4/DJ_cz_total.xlsx
+++ b/results/yq_test/DJ_cz/Rb2Re4/DJ_cz_total.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentutsedu-my.sharepoint.com/personal/yunqi_huang_student_uts_edu_au/Documents/Untitled Folder/NAQCT/results/yq_test/DJ_cz/Rb2Re4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_43D987A9DD5AD6261962D7F0505ED87656CDA922" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{844F00E5-3806-2A4F-8CB6-82EF92FDDCED}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_43D987A9DD5AD6261962D7F0505ED87656CDA922" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D4E3A27-AA43-3541-AD2C-3F738D6882E7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -1942,16 +1942,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2266,8 +2266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -2363,7 +2363,7 @@
         <v>4</v>
       </c>
       <c r="O2" t="e">
-        <f>A2/L2</f>
+        <f t="shared" ref="O2:O47" si="0">A2/L2</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2411,7 +2411,7 @@
         <v>8</v>
       </c>
       <c r="O3" t="e">
-        <f>A3/L3</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2459,7 +2459,7 @@
         <v>7</v>
       </c>
       <c r="O4" t="e">
-        <f>A4/L4</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2507,7 +2507,7 @@
         <v>10</v>
       </c>
       <c r="O5" t="e">
-        <f>A5/L5</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2555,7 +2555,7 @@
         <v>11</v>
       </c>
       <c r="O6" t="e">
-        <f>A6/L6</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2603,7 +2603,7 @@
         <v>13</v>
       </c>
       <c r="O7" t="e">
-        <f>A7/L7</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
         <v>18</v>
       </c>
       <c r="O8" t="e">
-        <f>A8/L8</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2699,7 +2699,7 @@
         <v>17</v>
       </c>
       <c r="O9" t="e">
-        <f>A9/L9</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2747,7 +2747,7 @@
         <v>20</v>
       </c>
       <c r="O10" t="e">
-        <f>A10/L10</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2795,7 +2795,7 @@
         <v>18</v>
       </c>
       <c r="O11" t="e">
-        <f>A11/L11</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2843,7 +2843,7 @@
         <v>23</v>
       </c>
       <c r="O12" t="e">
-        <f>A12/L12</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2891,7 +2891,7 @@
         <v>24</v>
       </c>
       <c r="O13" t="e">
-        <f>A13/L13</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2939,7 +2939,7 @@
         <v>27</v>
       </c>
       <c r="O14" t="e">
-        <f>A14/L14</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2987,7 +2987,7 @@
         <v>26</v>
       </c>
       <c r="O15" t="e">
-        <f>A15/L15</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3035,7 +3035,7 @@
         <v>29</v>
       </c>
       <c r="O16" t="e">
-        <f>A16/L16</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3083,7 +3083,7 @@
         <v>31</v>
       </c>
       <c r="O17" t="e">
-        <f>A17/L17</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3131,7 +3131,7 @@
         <v>31</v>
       </c>
       <c r="O18" t="e">
-        <f>A18/L18</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3179,7 +3179,7 @@
         <v>33</v>
       </c>
       <c r="O19" t="e">
-        <f>A19/L19</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3227,7 +3227,7 @@
         <v>39</v>
       </c>
       <c r="O20" t="e">
-        <f>A20/L20</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
         <v>37</v>
       </c>
       <c r="O21" t="e">
-        <f>A21/L21</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3323,7 +3323,7 @@
         <v>45</v>
       </c>
       <c r="O22" t="e">
-        <f>A22/L22</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3371,7 +3371,7 @@
         <v>32</v>
       </c>
       <c r="O23" t="e">
-        <f>A23/L23</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
         <v>29</v>
       </c>
       <c r="O24" t="e">
-        <f>A24/L24</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3467,7 +3467,7 @@
         <v>30</v>
       </c>
       <c r="O25" t="e">
-        <f>A25/L25</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3515,7 +3515,7 @@
         <v>32</v>
       </c>
       <c r="O26" t="e">
-        <f>A26/L26</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3563,7 +3563,7 @@
         <v>37</v>
       </c>
       <c r="O27" t="e">
-        <f>A27/L27</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3611,7 +3611,7 @@
         <v>41</v>
       </c>
       <c r="O28" t="e">
-        <f>A28/L28</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3659,7 +3659,7 @@
         <v>38</v>
       </c>
       <c r="O29" t="e">
-        <f>A29/L29</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3707,7 +3707,7 @@
         <v>45</v>
       </c>
       <c r="O30" t="e">
-        <f>A30/L30</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3755,7 +3755,7 @@
         <v>43</v>
       </c>
       <c r="O31" t="e">
-        <f>A31/L31</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3803,7 +3803,7 @@
         <v>40</v>
       </c>
       <c r="O32" t="e">
-        <f>A32/L32</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3851,7 +3851,7 @@
         <v>38</v>
       </c>
       <c r="O33" t="e">
-        <f>A33/L33</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3899,7 +3899,7 @@
         <v>42</v>
       </c>
       <c r="O34" t="e">
-        <f>A34/L34</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3947,7 +3947,7 @@
         <v>48</v>
       </c>
       <c r="O35" t="e">
-        <f>A35/L35</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3995,7 +3995,7 @@
         <v>47</v>
       </c>
       <c r="O36" t="e">
-        <f>A36/L36</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -4043,7 +4043,7 @@
         <v>49</v>
       </c>
       <c r="O37" t="e">
-        <f>A37/L37</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
         <v>54</v>
       </c>
       <c r="O38" t="e">
-        <f>A38/L38</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -4139,7 +4139,7 @@
         <v>52</v>
       </c>
       <c r="O39" t="e">
-        <f>A39/L39</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -4187,7 +4187,7 @@
         <v>54</v>
       </c>
       <c r="O40" t="e">
-        <f>A40/L40</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -4235,7 +4235,7 @@
         <v>54</v>
       </c>
       <c r="O41" t="e">
-        <f>A41/L41</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -4283,7 +4283,7 @@
         <v>56</v>
       </c>
       <c r="O42" t="e">
-        <f>A42/L42</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -4331,7 +4331,7 @@
         <v>53</v>
       </c>
       <c r="O43" t="e">
-        <f>A43/L43</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -4379,7 +4379,7 @@
         <v>55</v>
       </c>
       <c r="O44" t="e">
-        <f>A44/L44</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -4427,7 +4427,7 @@
         <v>60</v>
       </c>
       <c r="O45" t="e">
-        <f>A45/L45</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -4475,7 +4475,7 @@
         <v>67</v>
       </c>
       <c r="O46" t="e">
-        <f>A46/L46</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
         <v>67</v>
       </c>
       <c r="O47" t="e">
-        <f>A47/L47</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>

--- a/results/yq_test/DJ_cz/Rb2Re4/DJ_cz_total.xlsx
+++ b/results/yq_test/DJ_cz/Rb2Re4/DJ_cz_total.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentutsedu-my.sharepoint.com/personal/yunqi_huang_student_uts_edu_au/Documents/Untitled Folder/NAQCT/results/yq_test/DJ_cz/Rb2Re4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_43D987A9DD5AD6261962D7F0505ED87656CDA922" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D4E3A27-AA43-3541-AD2C-3F738D6882E7}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="11_43D987A9DD5AD6261962D7F0505ED87656CDA922" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09D997ED-845C-AE42-AA6B-CB4358641529}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -339,7 +339,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -352,10 +352,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1500" baseline="0"/>
               <a:t>DJ circuits</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1500" baseline="0"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -372,7 +372,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -391,8 +391,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -403,7 +403,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -412,7 +412,7 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Sheet!$B$2:$B$47</c:f>
               <c:numCache>
@@ -558,8 +558,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet!$E$2:$E$47</c:f>
               <c:numCache>
@@ -705,8 +705,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7E62-C043-992A-1FD8D1B12C1B}"/>
@@ -722,7 +722,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -731,7 +731,154 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:val>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet!$B$2:$B$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet!$L$2:$L$47</c:f>
               <c:numCache>
@@ -877,8 +1024,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7E62-C043-992A-1FD8D1B12C1B}"/>
@@ -894,7 +1041,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -903,7 +1050,154 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:val>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet!$B$2:$B$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet!$K$2:$K$47</c:f>
               <c:numCache>
@@ -1049,8 +1343,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-7E62-C043-992A-1FD8D1B12C1B}"/>
@@ -1065,14 +1359,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="418593663"/>
         <c:axId val="419102751"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="418593663"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="50"/>
+          <c:min val="5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1097,7 +1392,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1110,10 +1405,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1500" baseline="0"/>
                   <a:t>Qubits</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1500" baseline="0"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1130,7 +1425,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1168,7 +1463,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1185,12 +1480,10 @@
         </c:txPr>
         <c:crossAx val="419102751"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickMarkSkip val="5"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+        <c:minorUnit val="5"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="419102751"/>
         <c:scaling>
@@ -1221,7 +1514,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1234,10 +1527,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1500" baseline="0"/>
                   <a:t>Fidelity</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1500" baseline="0"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1254,7 +1547,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1286,7 +1579,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1303,7 +1596,7 @@
         </c:txPr>
         <c:crossAx val="418593663"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
@@ -1329,7 +1622,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1942,16 +2235,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>450850</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2266,7 +2559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E47"/>
     </sheetView>
   </sheetViews>

--- a/results/yq_test/DJ_cz/Rb2Re4/DJ_cz_total.xlsx
+++ b/results/yq_test/DJ_cz/Rb2Re4/DJ_cz_total.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentutsedu-my.sharepoint.com/personal/yunqi_huang_student_uts_edu_au/Documents/Untitled Folder/NAQCT/results/yq_test/DJ_cz/Rb2Re4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="11_43D987A9DD5AD6261962D7F0505ED87656CDA922" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09D997ED-845C-AE42-AA6B-CB4358641529}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_43D987A9DD5AD6261962D7F0505ED87656CDA922" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B62263F-5D50-6B4C-B05D-70E19A1DF2BA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7000" yWindow="580" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -2235,16 +2235,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2559,8 +2559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
